--- a/biology/Botanique/Euonymus_latifolius/Euonymus_latifolius.xlsx
+++ b/biology/Botanique/Euonymus_latifolius/Euonymus_latifolius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Fusain à larges feuilles, ou Euonymus latifolius, est une espèce de plante du genre Euonymus et de la famille des célastracées. C'est un arbre originaire du bassin méditerranéen, typique des pays du sud de l'Europe comme l'Espagne, d'Afrique du Nord et du Moyen-Orient.
 </t>
